--- a/biology/Biochimie/Coumaroyl-coenzyme_A/Coumaroyl-coenzyme_A.xlsx
+++ b/biology/Biochimie/Coumaroyl-coenzyme_A/Coumaroyl-coenzyme_A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La coumaroyl-coenzyme A, ou plus précisément la 4-coumaroyl-CoA, est un thioester formé par la réaction entre la fonction acide carboxylique de l'acide paracoumarique (acide 4-hydroxycinnamique) et la fonction thiol de la coenzyme A.
@@ -513,7 +525,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La coumaroyl-CoA est formée par réaction entre l'acide paracoumarique (en fait sa base conjuguée, le 4-coumarate) et la coenzyme A, réaction catalysée par une enzyme, la 4-coumarate-CoA ligase (4CL), et aidée énergétiquement par l'hydrolyse d'une molécule d'ATP en AMP et pyrophosphate inorganique :
 4-coumarate + CoA + ATP  
@@ -547,7 +561,9 @@
           <t>Synthèses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La coumaroyl-CoA est la forme « activée » de l'acide paracoumarique, ce qui le rend susceptible de participer à de nombreuses synthèses biochimiques.
 La coumaroyl-CoA est un élément clé dans la synthèse des chalcones, et donc des flavonoïdes, par la voie métabolique des phénylpropanoïdes. Il réagit en général avec trois molécules de malonyl-CoA, réaction catalysée par une enzyme spécifique, une chalcone synthase. On peut citer ainsi la 6'-déoxychalcone synthase dont l'action produit l'isoliquiritigénine, ou encore la naringinine-chalcone synthase produisant la naringinine-chalcone (phlorétine).
